--- a/기획서/스핀스퀘어 기획서_작성완료.xlsx
+++ b/기획서/스핀스퀘어 기획서_작성완료.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\학교\공모전 프로젝트\NoJump\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C6CBD-7EB5-4291-B2E7-F9D029BAB90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86EA496-3910-4658-A91B-612842C45141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="11328" activeTab="6" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="8" r:id="rId1"/>
@@ -567,10 +567,6 @@
     <t>롤플레이 퍼즐</t>
   </si>
   <si>
-    <t>뛰지 않는 모험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배경 그래픽 컨셉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,6 +1075,10 @@
   </si>
   <si>
     <t>앨리스의 눈물은 랜덤 LV로 등장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핀스퀘어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2035,7 +2035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2168,13 +2168,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2183,107 +2366,245 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2294,361 +2615,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6110,43 +6089,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB769FD-CCE9-4E61-AE6E-542587FE93AD}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="172" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="173"/>
+      <c r="B2" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="174"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="76"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="163"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="55" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -6155,16 +6134,16 @@
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="76"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="55" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -6173,216 +6152,147 @@
       <c r="D9" s="19"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="C10" s="185" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="185"/>
+      <c r="D10" s="76"/>
     </row>
     <row r="11" spans="2:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
-      <c r="P13" s="184"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="75"/>
     </row>
     <row r="14" spans="2:16" ht="185.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="124" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
+      <c r="B14" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="N15" s="147"/>
+      <c r="N15" s="54"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
+      <c r="C17" s="87"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="28"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="121"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50" t="s">
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="132"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="43" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="45"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
@@ -6482,7 +6392,7 @@
       <c r="B48" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="187" t="s">
+      <c r="C48" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="14"/>
@@ -6502,13 +6412,13 @@
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="2:16" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="52"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="16" t="s">
         <v>21</v>
       </c>
@@ -6525,9 +6435,9 @@
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="186"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="9" t="s">
         <v>22</v>
       </c>
@@ -6548,24 +6458,29 @@
       <c r="C51" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="82" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="176"/>
+      <c r="D51" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="D51:P51"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B5:B6"/>
@@ -6576,11 +6491,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C49:D50"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6591,9 +6501,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C138E6A2-E98E-49D8-A28E-55F40F154BA0}">
-  <dimension ref="B19:P85"/>
+  <dimension ref="B19:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -6607,97 +6517,96 @@
       <c r="B19" s="29"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="133" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133"/>
+      <c r="B23" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
     </row>
     <row r="24" spans="2:14" ht="150.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="135" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="116"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B25" s="168"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="53" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="I25" s="54"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="112"/>
+      <c r="H25" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="112"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
     <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="168"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="53">
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="111">
         <v>20</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="I26" s="54"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="112"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="168"/>
-      <c r="C27" s="169"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="G27" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="H27" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="I27" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
@@ -6705,10 +6614,10 @@
       <c r="M27" s="19"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="34">
         <v>1</v>
@@ -6731,207 +6640,189 @@
       <c r="M28" s="19"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="168"/>
-      <c r="C29" s="169"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="54"/>
+        <v>181</v>
+      </c>
+      <c r="E29" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="112"/>
       <c r="G29" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="53">
+        <v>141</v>
+      </c>
+      <c r="H29" s="111">
         <v>20</v>
       </c>
-      <c r="I29" s="54"/>
+      <c r="I29" s="112"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="170"/>
-      <c r="C30" s="171"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="72"/>
+      <c r="F30" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="116"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B66" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="70"/>
+      <c r="D66" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="76"/>
+      <c r="L66" s="76"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="76"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="19" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B66" s="163" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="163"/>
-      <c r="D66" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="58"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="19" t="s">
-        <v>207</v>
       </c>
       <c r="H67" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B68" s="163"/>
-      <c r="C68" s="163"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
       <c r="G68" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H68" s="19">
         <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="164" t="s">
+      <c r="B69" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="114" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="115"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="115"/>
+      <c r="I69" s="115"/>
+      <c r="J69" s="115"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="115"/>
+      <c r="N69" s="116"/>
+    </row>
+    <row r="70" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="113"/>
+      <c r="C70" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="114" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="115"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="115"/>
+      <c r="H70" s="115"/>
+      <c r="I70" s="115"/>
+      <c r="J70" s="115"/>
+      <c r="K70" s="115"/>
+      <c r="L70" s="115"/>
+      <c r="M70" s="115"/>
+      <c r="N70" s="116"/>
+    </row>
+    <row r="71" spans="2:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="95"/>
+      <c r="D71" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="105"/>
+      <c r="K71" s="105"/>
+      <c r="L71" s="105"/>
+      <c r="M71" s="105"/>
+      <c r="N71" s="106"/>
+    </row>
+    <row r="72" spans="2:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="98"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="C69" s="165" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="71"/>
-      <c r="N69" s="72"/>
-    </row>
-    <row r="70" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="164"/>
-      <c r="C70" s="165" t="s">
-        <v>174</v>
-      </c>
-      <c r="D70" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="72"/>
-    </row>
-    <row r="71" spans="2:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="166" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="167"/>
-      <c r="D71" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="E71" s="136"/>
-      <c r="F71" s="136"/>
-      <c r="G71" s="136"/>
-      <c r="H71" s="136"/>
-      <c r="I71" s="136"/>
-      <c r="J71" s="136"/>
-      <c r="K71" s="136"/>
-      <c r="L71" s="136"/>
-      <c r="M71" s="136"/>
-      <c r="N71" s="137"/>
-    </row>
-    <row r="72" spans="2:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="168"/>
-      <c r="C72" s="169"/>
-      <c r="D72" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="139"/>
+      <c r="E72" s="101"/>
       <c r="F72" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="H72" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="I72" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I72" s="19" t="s">
+      <c r="J72" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="K72" s="19"/>
       <c r="L72" s="19"/>
@@ -6939,59 +6830,58 @@
       <c r="N72" s="19"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B73" s="170"/>
-      <c r="C73" s="171"/>
-      <c r="D73" s="118"/>
-      <c r="E73" s="119"/>
-      <c r="F73" s="122" t="s">
+      <c r="B73" s="96"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G73" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="G73" s="122" t="s">
+      <c r="H73" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="H73" s="122" t="s">
+      <c r="I73" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="I73" s="19" t="s">
+      <c r="J73" s="19" t="s">
         <v>190</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
       <c r="M73" s="19"/>
       <c r="N73" s="19"/>
-      <c r="O73" s="121"/>
     </row>
     <row r="74" spans="2:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="166" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="167"/>
-      <c r="D74" s="135" t="s">
+      <c r="B74" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="95"/>
+      <c r="D74" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="105"/>
+      <c r="N74" s="106"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B75" s="98"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="E74" s="136"/>
-      <c r="F74" s="136"/>
-      <c r="G74" s="136"/>
-      <c r="H74" s="136"/>
-      <c r="I74" s="136"/>
-      <c r="J74" s="136"/>
-      <c r="K74" s="136"/>
-      <c r="L74" s="136"/>
-      <c r="M74" s="136"/>
-      <c r="N74" s="137"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B75" s="168"/>
-      <c r="C75" s="169"/>
-      <c r="D75" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
@@ -7003,52 +6893,51 @@
       <c r="N75" s="37"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B76" s="168"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="E76" s="47"/>
-      <c r="F76" s="48"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="108"/>
+      <c r="F76" s="109"/>
       <c r="G76" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H76" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="I76" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="J76" s="15" t="s">
         <v>61</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
-      <c r="O76" s="121"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B77" s="168"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="129">
+      <c r="B77" s="98"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="110"/>
+      <c r="G77" s="46">
         <v>0</v>
       </c>
-      <c r="H77" s="129">
+      <c r="H77" s="46">
         <v>0.2</v>
       </c>
-      <c r="I77" s="129">
+      <c r="I77" s="46">
         <v>0.4</v>
       </c>
-      <c r="J77" s="129">
+      <c r="J77" s="46">
         <v>0.7</v>
       </c>
-      <c r="K77" s="129">
+      <c r="K77" s="46">
         <v>1</v>
       </c>
       <c r="L77" s="19"/>
@@ -7056,13 +6945,13 @@
       <c r="N77" s="19"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B78" s="170"/>
-      <c r="C78" s="171"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="97"/>
       <c r="D78" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
@@ -7075,12 +6964,12 @@
       <c r="N78" s="37"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B79" s="166" t="s">
-        <v>202</v>
-      </c>
-      <c r="C79" s="167"/>
+      <c r="B79" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="95"/>
       <c r="D79" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
@@ -7094,13 +6983,13 @@
       <c r="N79" s="37"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B80" s="170"/>
-      <c r="C80" s="171"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="97"/>
       <c r="D80" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
@@ -7111,15 +7000,15 @@
       <c r="L80" s="36"/>
       <c r="M80" s="36"/>
       <c r="N80" s="37"/>
-      <c r="O80" s="125"/>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B81" s="166" t="s">
-        <v>203</v>
-      </c>
-      <c r="C81" s="167"/>
+      <c r="O80" s="31"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B81" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" s="95"/>
       <c r="D81" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
@@ -7131,17 +7020,16 @@
       <c r="L81" s="36"/>
       <c r="M81" s="36"/>
       <c r="N81" s="37"/>
-      <c r="O81" s="125"/>
-      <c r="P81" s="121"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B82" s="170"/>
-      <c r="C82" s="171"/>
+      <c r="O81" s="31"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B82" s="96"/>
+      <c r="C82" s="97"/>
       <c r="D82" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
@@ -7153,57 +7041,11 @@
       <c r="M82" s="36"/>
       <c r="N82" s="37"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="D83" s="116"/>
-      <c r="E83" s="116"/>
-      <c r="F83" s="116"/>
-      <c r="G83" s="116"/>
-      <c r="H83" s="116"/>
-      <c r="I83" s="116"/>
-      <c r="J83" s="116"/>
-      <c r="K83" s="116"/>
-      <c r="L83" s="116"/>
-      <c r="M83" s="116"/>
-      <c r="N83" s="116"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="D84" s="116"/>
-      <c r="E84" s="116"/>
-      <c r="F84" s="116"/>
-      <c r="G84" s="116"/>
-      <c r="H84" s="116"/>
-      <c r="I84" s="116"/>
-      <c r="J84" s="116"/>
-      <c r="K84" s="116"/>
-      <c r="L84" s="116"/>
-      <c r="M84" s="116"/>
-      <c r="N84" s="116"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="D85" s="116"/>
-      <c r="E85" s="116"/>
-      <c r="F85" s="116"/>
-      <c r="G85" s="116"/>
-      <c r="H85" s="116"/>
-      <c r="I85" s="116"/>
-      <c r="J85" s="116"/>
-      <c r="K85" s="116"/>
-      <c r="L85" s="116"/>
-      <c r="M85" s="116"/>
-      <c r="N85" s="116"/>
-    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B81:C82"/>
-    <mergeCell ref="B66:C68"/>
-    <mergeCell ref="D67:F68"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="B71:C73"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="D74:N74"/>
-    <mergeCell ref="D76:F77"/>
-    <mergeCell ref="B74:C78"/>
-    <mergeCell ref="D71:N71"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="D66:N66"/>
+    <mergeCell ref="D25:E26"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="B24:C30"/>
@@ -7216,9 +7058,16 @@
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="D66:N66"/>
-    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="B81:C82"/>
+    <mergeCell ref="B66:C68"/>
+    <mergeCell ref="D67:F68"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="B71:C73"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="D74:N74"/>
+    <mergeCell ref="D76:F77"/>
+    <mergeCell ref="B74:C78"/>
+    <mergeCell ref="D71:N71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7230,7 +7079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61364C-7092-4374-B974-5D8E093825D9}">
   <dimension ref="B15:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
@@ -7238,147 +7087,147 @@
   <sheetData>
     <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="138"/>
     </row>
     <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="144"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="145"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="19"/>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="145"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="58" t="s">
+      <c r="C20" s="140"/>
+      <c r="D20" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="145"/>
     </row>
     <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68" t="s">
+      <c r="B21" s="141"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="147"/>
     </row>
     <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="188" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="189"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="190"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="133" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="135"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="157"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="73" t="s">
+      <c r="B24" s="124"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="191" t="s">
+      <c r="E24" s="126"/>
+      <c r="F24" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="117" t="s">
+      <c r="G24" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="117" t="s">
+      <c r="H24" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="117" t="s">
+      <c r="I24" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="192" t="s">
+      <c r="J24" s="53" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="159"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="160"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="132"/>
       <c r="F25" s="39">
         <v>1</v>
       </c>
@@ -7396,79 +7245,79 @@
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="82"/>
+    </row>
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="173"/>
-    </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="174" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="99"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
     </row>
     <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="118" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="119"/>
+      <c r="D29" s="122" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="193" t="s">
+      <c r="E29" s="123"/>
+      <c r="F29" s="133">
+        <v>2</v>
+      </c>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="135"/>
+    </row>
+    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="124"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="E29" s="194"/>
-      <c r="F29" s="188">
-        <v>2</v>
-      </c>
-      <c r="G29" s="189"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="189"/>
-      <c r="J29" s="190"/>
-    </row>
-    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="157"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="159" t="s">
+      <c r="E30" s="132"/>
+      <c r="F30" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="120"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="E30" s="160"/>
-      <c r="F30" s="195" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="196" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="196" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="196" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" s="197" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="159"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="159" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="160"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="41">
         <v>0</v>
       </c>
@@ -7487,37 +7336,37 @@
     </row>
     <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="119"/>
+      <c r="D33" s="122" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="123"/>
+      <c r="F33" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J33" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="120"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="122" t="s">
         <v>246</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="193" t="s">
-        <v>244</v>
-      </c>
-      <c r="E33" s="194"/>
-      <c r="F33" s="198" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="196" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="196" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="196" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" s="197" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="159"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="193" t="s">
-        <v>247</v>
-      </c>
-      <c r="E34" s="194"/>
+      <c r="E34" s="123"/>
       <c r="F34" s="41">
         <v>2</v>
       </c>
@@ -7536,36 +7385,36 @@
     </row>
     <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="118" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="119"/>
+      <c r="D37" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="198" t="s">
+      <c r="E37" s="126"/>
+      <c r="F37" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="196" t="s">
+      <c r="G37" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="196" t="s">
+      <c r="H37" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="196" t="s">
+      <c r="I37" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="197" t="s">
+      <c r="J37" s="64" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="157"/>
-      <c r="C38" s="200"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="175">
+      <c r="B38" s="124"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="57">
         <v>1</v>
       </c>
       <c r="G38" s="41">
@@ -7582,78 +7431,78 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="157"/>
-      <c r="C39" s="200"/>
-      <c r="D39" s="203" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="204"/>
-      <c r="F39" s="198" t="s">
+      <c r="B39" s="124"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="129" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="130"/>
+      <c r="F39" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="196" t="s">
+      <c r="G39" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="196" t="s">
+      <c r="H39" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="196" t="s">
+      <c r="I39" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="J39" s="197" t="s">
+      <c r="J39" s="64" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="157"/>
-      <c r="C40" s="200"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="175" t="s">
+      <c r="B40" s="124"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="H40" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="I40" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="I40" s="41" t="s">
+      <c r="J40" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="J40" s="42" t="s">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="124"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="129" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="157"/>
-      <c r="C41" s="200"/>
-      <c r="D41" s="203" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" s="204"/>
-      <c r="F41" s="198" t="s">
+      <c r="E41" s="130"/>
+      <c r="F41" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="196" t="s">
+      <c r="G41" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="196" t="s">
+      <c r="H41" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="I41" s="196" t="s">
+      <c r="I41" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="J41" s="197" t="s">
+      <c r="J41" s="64" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="157"/>
-      <c r="C42" s="200"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="175">
+      <c r="B42" s="124"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="57">
         <v>1</v>
       </c>
       <c r="G42" s="41">
@@ -7670,20 +7519,37 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="159"/>
-      <c r="C43" s="199"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="174" t="s">
-        <v>256</v>
-      </c>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="99"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B23:C25"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B29:C31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="D33:E33"/>
@@ -7692,23 +7558,6 @@
     <mergeCell ref="D37:E38"/>
     <mergeCell ref="D39:E40"/>
     <mergeCell ref="D41:E43"/>
-    <mergeCell ref="B29:C31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B23:C25"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7720,7 +7569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C618D004-48C5-4283-AC4B-B7089F5CE503}">
   <dimension ref="B18:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
@@ -7728,78 +7577,78 @@
   <sheetData>
     <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="126"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="116"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="70" t="s">
+      <c r="C21" s="163"/>
+      <c r="D21" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="116"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="70" t="s">
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="72"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="116"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="77"/>
+      <c r="C23" s="163"/>
       <c r="D23" s="19" t="s">
         <v>30</v>
       </c>
@@ -7814,26 +7663,26 @@
       <c r="M23" s="19"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="70" t="s">
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="72"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="116"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="77"/>
+      <c r="C25" s="163"/>
       <c r="D25" s="19" t="s">
         <v>33</v>
       </c>
@@ -7848,297 +7697,267 @@
       <c r="M25" s="19"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="70" t="s">
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="116"/>
     </row>
     <row r="27" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="127" t="s">
+      <c r="C28" s="126"/>
+      <c r="D28" s="166" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="141" t="s">
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="141" t="s">
+      <c r="I28" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="141" t="s">
+      <c r="J28" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="K28" s="141" t="s">
+      <c r="K28" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="L28" s="142" t="s">
+      <c r="L28" s="50" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="157"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="151" t="s">
+      <c r="B29" s="124"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="144">
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="51">
         <v>5</v>
       </c>
-      <c r="I29" s="144">
+      <c r="I29" s="51">
         <v>4</v>
       </c>
-      <c r="J29" s="144">
+      <c r="J29" s="51">
         <v>3</v>
       </c>
-      <c r="K29" s="144">
+      <c r="K29" s="51">
         <v>2</v>
       </c>
-      <c r="L29" s="145">
+      <c r="L29" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="157"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="152" t="s">
+      <c r="B30" s="124"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="170" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="94" t="s">
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="153" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153">
+        <v>-2</v>
+      </c>
+      <c r="L30" s="154"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B31" s="124"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="J30" s="131"/>
-      <c r="K30" s="131">
+      <c r="J31" s="77"/>
+      <c r="K31" s="77">
+        <v>1</v>
+      </c>
+      <c r="L31" s="158"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B32" s="124"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="157" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="158"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B33" s="124"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77">
+        <v>5</v>
+      </c>
+      <c r="L33" s="158"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B34" s="124"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="157" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="158"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B35" s="124"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77">
+        <v>4</v>
+      </c>
+      <c r="L35" s="158"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B36" s="124"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="159" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77">
         <v>-2</v>
       </c>
-      <c r="L30" s="146"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="157"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52">
-        <v>1</v>
-      </c>
-      <c r="L31" s="87"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B32" s="157"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="154" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="87"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52">
-        <v>5</v>
-      </c>
-      <c r="L33" s="87"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="157"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="154" t="s">
-        <v>215</v>
-      </c>
-      <c r="E34" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="87"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="157"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52">
-        <v>4</v>
-      </c>
-      <c r="L35" s="87"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="157"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="155" t="s">
+      <c r="L36" s="158"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B37" s="124"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161" t="s">
         <v>217</v>
       </c>
-      <c r="E36" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52">
-        <v>-2</v>
-      </c>
-      <c r="L36" s="87"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="157"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113" t="s">
+      <c r="J37" s="161"/>
+      <c r="K37" s="77">
+        <v>2</v>
+      </c>
+      <c r="L37" s="158"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B38" s="124"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="J37" s="113"/>
-      <c r="K37" s="52">
-        <v>2</v>
-      </c>
-      <c r="L37" s="87"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B38" s="157"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="161" t="s">
+      <c r="E38" s="148" t="s">
         <v>219</v>
-      </c>
-      <c r="E38" s="148" t="s">
-        <v>220</v>
       </c>
       <c r="F38" s="149"/>
       <c r="G38" s="149"/>
       <c r="H38" s="149"/>
-      <c r="I38" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="J38" s="52"/>
-      <c r="K38" s="131">
+      <c r="I38" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J38" s="77"/>
+      <c r="K38" s="153">
         <v>-10</v>
       </c>
-      <c r="L38" s="146"/>
+      <c r="L38" s="154"/>
     </row>
     <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="159"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="162"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="150"/>
       <c r="F39" s="150"/>
       <c r="G39" s="150"/>
       <c r="H39" s="150"/>
-      <c r="I39" s="89" t="s">
+      <c r="I39" s="155" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155" t="s">
         <v>221</v>
       </c>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="L39" s="90"/>
+      <c r="L39" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="B28:C39"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D24:M24"/>
@@ -8149,7 +7968,37 @@
     <mergeCell ref="E30:H31"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B28:C39"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8162,7 +8011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B1AB3-CC49-495A-99AD-7BB4C69F9D39}">
   <dimension ref="B18:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -8170,307 +8019,307 @@
   <sheetData>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="77"/>
+      <c r="D21" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52" t="s">
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52" t="s">
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="174" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="81" t="s">
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B24" s="173" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="173"/>
+      <c r="D24" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B25" s="173"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="58" t="s">
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B26" s="173"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B27" s="173" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="173"/>
+      <c r="D27" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="52" t="s">
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B29" s="173" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="173"/>
+      <c r="D29" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="52" t="s">
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" s="30"/>
@@ -8554,26 +8403,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B19:O19"/>
     <mergeCell ref="D20:O20"/>
     <mergeCell ref="D21:O21"/>
@@ -8590,6 +8419,26 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D30:O30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8602,7 +8451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CCAFE-CEE6-48A9-8735-EA3AFEF10E87}">
   <dimension ref="B18:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -8610,216 +8459,239 @@
   <sheetData>
     <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="108"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="181"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="52" t="s">
+      <c r="C20" s="173"/>
+      <c r="D20" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="87"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="158"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="52" t="s">
+      <c r="C21" s="173"/>
+      <c r="D21" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="87"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="158"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="107"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52" t="s">
+      <c r="B22" s="178"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52" t="s">
+      <c r="G22" s="77"/>
+      <c r="H22" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="87"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="77"/>
+      <c r="L22" s="158"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="107"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52" t="s">
+      <c r="B23" s="178"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52">
+      <c r="E23" s="77"/>
+      <c r="F23" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77">
         <v>1</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="87"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="158"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="176" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52" t="s">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="158"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="176"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="87"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="86"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52" t="s">
+      <c r="K25" s="77"/>
+      <c r="L25" s="158"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="176"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="K25" s="52"/>
-      <c r="L25" s="87"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="86"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52" t="s">
+      <c r="E26" s="77"/>
+      <c r="F26" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52" t="s">
+      <c r="I26" s="77"/>
+      <c r="J26" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52" t="s">
+      <c r="K26" s="77"/>
+      <c r="L26" s="158"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="176" t="s">
         <v>228</v>
       </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="87"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="86" t="s">
+      <c r="C27" s="77"/>
+      <c r="D27" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52" t="s">
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="158"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="176"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="87"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="86"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52" t="s">
+      <c r="G28" s="77"/>
+      <c r="H28" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52" t="s">
+      <c r="K28" s="77"/>
+      <c r="L28" s="158"/>
+    </row>
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="177"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155" t="s">
         <v>232</v>
       </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="87"/>
-    </row>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89" t="s">
+      <c r="G29" s="155"/>
+      <c r="H29" s="155" t="s">
         <v>226</v>
       </c>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89" t="s">
+      <c r="I29" s="155"/>
+      <c r="J29" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89" t="s">
-        <v>227</v>
-      </c>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89" t="s">
-        <v>234</v>
-      </c>
-      <c r="K29" s="89"/>
-      <c r="L29" s="90"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
@@ -8830,29 +8702,6 @@
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8865,28 +8714,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D56172-F97B-4DA2-B700-ED6E77845DD1}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="106"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="186"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="91"/>
+      <c r="B2" s="183"/>
       <c r="C2" s="22" t="s">
         <v>58</v>
       </c>
@@ -8904,10 +8753,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="91"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="22">
         <v>10</v>
       </c>
@@ -8925,10 +8774,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="91"/>
+      <c r="B4" s="183"/>
       <c r="C4" s="22">
         <v>10</v>
       </c>
@@ -8946,10 +8795,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="182" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="22">
         <v>5</v>
       </c>
@@ -8967,10 +8816,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="22">
         <v>1</v>
       </c>
@@ -8988,10 +8837,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="22">
         <v>1</v>
       </c>
@@ -9009,10 +8858,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="22">
         <v>2</v>
       </c>
@@ -9030,10 +8879,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="22">
         <v>0</v>
       </c>
@@ -9051,10 +8900,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="22">
         <v>0</v>
       </c>
@@ -9072,10 +8921,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="22">
         <v>0</v>
       </c>
@@ -9093,10 +8942,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="183"/>
       <c r="C12" s="22">
         <v>100</v>
       </c>
@@ -9114,10 +8963,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="188"/>
       <c r="C13" s="25">
         <v>1</v>
       </c>
@@ -9135,93 +8984,93 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91" t="s">
+      <c r="B18" s="183"/>
+      <c r="C18" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91" t="s">
+      <c r="B19" s="183"/>
+      <c r="C19" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91" t="s">
+      <c r="B20" s="183"/>
+      <c r="C20" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91" t="s">
+      <c r="B21" s="183"/>
+      <c r="C21" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91" t="s">
+      <c r="B22" s="183"/>
+      <c r="C22" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91" t="s">
+      <c r="B23" s="183"/>
+      <c r="C23" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="27"/>
@@ -9243,139 +9092,139 @@
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="192"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="77"/>
+      <c r="C28" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="93"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="193"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="86"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="95"/>
+      <c r="A29" s="176"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="194"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="86"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="96"/>
+      <c r="A30" s="176"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="195"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="46" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="93"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="193"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="86"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="95"/>
+      <c r="A32" s="176"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="194"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="86"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="96"/>
+      <c r="A33" s="176"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="195"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="46" t="s">
+      <c r="B34" s="77"/>
+      <c r="C34" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="93"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="193"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="86"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="95"/>
+      <c r="A35" s="176"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="194"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="86"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="96"/>
+      <c r="A36" s="176"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="195"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="176" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="46" t="s">
+      <c r="B37" s="77"/>
+      <c r="C37" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="93"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="193"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="86"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="95"/>
+      <c r="A38" s="176"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="194"/>
     </row>
     <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="88"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="99"/>
+      <c r="A39" s="177"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="85"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="28"/>
@@ -9405,212 +9254,211 @@
       <c r="G42" s="28"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="189" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="91" t="s">
+      <c r="A44" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91" t="s">
+      <c r="B44" s="183"/>
+      <c r="C44" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="183"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91" t="s">
+      <c r="B45" s="183"/>
+      <c r="C45" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="183"/>
+      <c r="G45" s="183"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="197" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92" t="s">
+      <c r="B46" s="197"/>
+      <c r="C46" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="197"/>
+      <c r="F46" s="197"/>
+      <c r="G46" s="197"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="91" t="s">
+      <c r="A47" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91" t="s">
+      <c r="B47" s="183"/>
+      <c r="C47" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
+      <c r="D47" s="183"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="91" t="s">
+      <c r="A48" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91" t="s">
+      <c r="B48" s="183"/>
+      <c r="C48" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="183"/>
+      <c r="F48" s="183"/>
+      <c r="G48" s="183"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="91" t="s">
+      <c r="A49" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91" t="s">
+      <c r="B49" s="183"/>
+      <c r="C49" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="183"/>
+      <c r="G49" s="183"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="114"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="114"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="114"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="114"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
     </row>
     <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="190" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="B55" s="191"/>
+      <c r="C55" s="191"/>
+      <c r="D55" s="191"/>
+      <c r="E55" s="191"/>
+      <c r="F55" s="191"/>
+      <c r="G55" s="192"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="87"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="158"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="87"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="158"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="87"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="158"/>
     </row>
     <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="90"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="155"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="A23:B23"/>
@@ -9625,29 +9473,30 @@
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="C37:G39"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획서/스핀스퀘어 기획서_작성완료.xlsx
+++ b/기획서/스핀스퀘어 기획서_작성완료.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\학교\공모전 프로젝트\NoJump\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\08Extra\유니티 게임프로젝트\NoJump\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86EA496-3910-4658-A91B-612842C45141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFA9E92-791C-4851-9346-FF3EBEB52BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="11328" activeTab="6" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12336" activeTab="3" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="8" r:id="rId1"/>
-    <sheet name="스테이지1,2" sheetId="3" r:id="rId2"/>
-    <sheet name="스테이지3" sheetId="4" r:id="rId3"/>
-    <sheet name="스테이지4" sheetId="2" r:id="rId4"/>
-    <sheet name="스테이지5" sheetId="5" r:id="rId5"/>
-    <sheet name="스테이지6" sheetId="6" r:id="rId6"/>
-    <sheet name="플레이어" sheetId="7" r:id="rId7"/>
+    <sheet name="플레이어" sheetId="7" r:id="rId2"/>
+    <sheet name="시작화면" sheetId="9" r:id="rId3"/>
+    <sheet name="스테이지1,2" sheetId="3" r:id="rId4"/>
+    <sheet name="스테이지3" sheetId="4" r:id="rId5"/>
+    <sheet name="스테이지4" sheetId="2" r:id="rId6"/>
+    <sheet name="스테이지5" sheetId="5" r:id="rId7"/>
+    <sheet name="스테이지6" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="259">
   <si>
     <t>ex) 던그리드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,10 +721,6 @@
   </si>
   <si>
     <t>표지판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"너무 어두워! 잘 보이지 않아ㅜㅜ 아래 상자에서 헤드라이트를 꺼낼 수 있어"라는 표지판을 둔다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1079,6 +1076,18 @@
   </si>
   <si>
     <t>스핀스퀘어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너무 어두워! 잘 보이지 않아ㅜㅜ 아래 상자에서 헤드라이트를 꺼낼 수 있어"라는 표지판을 둔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표지판을 통해 게임 진행 방식 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2035,7 +2044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2276,6 +2285,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2315,8 +2327,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2357,22 +2438,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2387,6 +2456,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2501,16 +2576,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2522,39 +2621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2564,70 +2630,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2885,6 +2897,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>162576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B611F47-C31E-4958-8C96-7E900214C756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777240" y="525779"/>
+          <a:ext cx="7726680" cy="4277377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>43543</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
@@ -2994,50 +3055,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>50409</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>396710</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>109025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="그림 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29B3FD1-DECE-4494-A0F5-E471A06271B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="12570069"/>
-          <a:ext cx="3741890" cy="2047435"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3298,16 +3315,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>613238</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>193150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>658062</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>184185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476104</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>179879</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>583680</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>170913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3323,15 +3340,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7311218" y="13154770"/>
-          <a:ext cx="3276626" cy="1533589"/>
+          <a:off x="6027921" y="13129220"/>
+          <a:ext cx="3287383" cy="1555552"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3342,16 +3359,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>92370</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>31613</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137194</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>22648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>383275</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>60748</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428099</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>51782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3366,8 +3383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7460910" y="13214213"/>
-          <a:ext cx="290905" cy="250115"/>
+          <a:off x="6179406" y="13191801"/>
+          <a:ext cx="290905" cy="253252"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3411,89 +3428,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>129991</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161526</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68769</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>151055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>420896</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>190659</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="순서도: 연결자 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87A37C4-4F60-4C4C-A0F9-B1D9AC75BCF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800551" y="12681186"/>
-          <a:ext cx="290905" cy="250113"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>32910</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>418392</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>27234</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463216</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>18269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3509,15 +3455,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4719210" y="12458700"/>
-          <a:ext cx="2397162" cy="2518973"/>
+          <a:off x="3430534" y="12423737"/>
+          <a:ext cx="2402541" cy="2556626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3528,16 +3474,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>645648</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>35413</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9154</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>26448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>265993</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>64548</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>301852</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>55582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3552,8 +3498,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4661388" y="12555073"/>
-          <a:ext cx="290905" cy="250115"/>
+          <a:off x="3370919" y="12523248"/>
+          <a:ext cx="292698" cy="253252"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3599,16 +3545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>68341</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>186465</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>193847</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>196742</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123315</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>322248</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>186068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3624,15 +3570,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6095761" y="9833385"/>
-          <a:ext cx="2140081" cy="1483710"/>
+          <a:off x="866200" y="12521900"/>
+          <a:ext cx="2145460" cy="1505674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3643,16 +3589,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>645648</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>98801</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>222773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>262875</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>189155</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388381</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>27790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3667,8 +3613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6002508" y="9806940"/>
-          <a:ext cx="287787" cy="250115"/>
+          <a:off x="771154" y="12495455"/>
+          <a:ext cx="289580" cy="253253"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3810,7 +3756,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3830,7 +3776,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4251,7 +4197,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4958,7 +4904,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5528,7 +5474,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6089,7 +6035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB769FD-CCE9-4E61-AE6E-542587FE93AD}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -6097,16 +6043,16 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
+      <c r="B2" s="81" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
     </row>
     <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="70" t="s">
@@ -6153,10 +6099,10 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="76" t="s">
         <v>236</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>237</v>
       </c>
       <c r="D10" s="76"/>
     </row>
@@ -6182,7 +6128,7 @@
     </row>
     <row r="14" spans="2:16" ht="185.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
@@ -6217,10 +6163,10 @@
       <c r="K16" s="59"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="87"/>
+      <c r="C17" s="88"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -6264,35 +6210,35 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
       <c r="K27" s="47"/>
     </row>
     <row r="43" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="89"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
@@ -6459,7 +6405,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
@@ -6500,2242 +6446,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C138E6A2-E98E-49D8-A28E-55F40F154BA0}">
-  <dimension ref="B19:O82"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="6" max="6" width="8.69921875" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B19" s="29"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-    </row>
-    <row r="24" spans="2:14" ht="150.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="104" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="106"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="109"/>
-      <c r="F25" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="112"/>
-      <c r="H25" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="112"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="111">
-        <v>20</v>
-      </c>
-      <c r="G26" s="112"/>
-      <c r="H26" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="112"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="34">
-        <v>1</v>
-      </c>
-      <c r="F28" s="34">
-        <v>2</v>
-      </c>
-      <c r="G28" s="34">
-        <v>3</v>
-      </c>
-      <c r="H28" s="34">
-        <v>4</v>
-      </c>
-      <c r="I28" s="34">
-        <v>5</v>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="98"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="111" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="112"/>
-      <c r="G29" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="111">
-        <v>20</v>
-      </c>
-      <c r="I29" s="112"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="96"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="114" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="116"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B35" s="48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B66" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="76"/>
-      <c r="L66" s="76"/>
-      <c r="M66" s="76"/>
-      <c r="N66" s="76"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="H67" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H68" s="19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="113" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="114" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="115"/>
-      <c r="F69" s="115"/>
-      <c r="G69" s="115"/>
-      <c r="H69" s="115"/>
-      <c r="I69" s="115"/>
-      <c r="J69" s="115"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="115"/>
-      <c r="N69" s="116"/>
-    </row>
-    <row r="70" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="113"/>
-      <c r="C70" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="D70" s="114" t="s">
-        <v>174</v>
-      </c>
-      <c r="E70" s="115"/>
-      <c r="F70" s="115"/>
-      <c r="G70" s="115"/>
-      <c r="H70" s="115"/>
-      <c r="I70" s="115"/>
-      <c r="J70" s="115"/>
-      <c r="K70" s="115"/>
-      <c r="L70" s="115"/>
-      <c r="M70" s="115"/>
-      <c r="N70" s="116"/>
-    </row>
-    <row r="71" spans="2:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="94" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="95"/>
-      <c r="D71" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="105"/>
-      <c r="L71" s="105"/>
-      <c r="M71" s="105"/>
-      <c r="N71" s="106"/>
-    </row>
-    <row r="72" spans="2:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="98"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="E72" s="101"/>
-      <c r="F72" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B73" s="96"/>
-      <c r="C73" s="97"/>
-      <c r="D73" s="102"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-    </row>
-    <row r="74" spans="2:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="94" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" s="95"/>
-      <c r="D74" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="105"/>
-      <c r="I74" s="105"/>
-      <c r="J74" s="105"/>
-      <c r="K74" s="105"/>
-      <c r="L74" s="105"/>
-      <c r="M74" s="105"/>
-      <c r="N74" s="106"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B75" s="98"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="37"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B76" s="98"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="107" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="108"/>
-      <c r="F76" s="109"/>
-      <c r="G76" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B77" s="98"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="110"/>
-      <c r="G77" s="46">
-        <v>0</v>
-      </c>
-      <c r="H77" s="46">
-        <v>0.2</v>
-      </c>
-      <c r="I77" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="J77" s="46">
-        <v>0.7</v>
-      </c>
-      <c r="K77" s="46">
-        <v>1</v>
-      </c>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B78" s="96"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="37"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B79" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="95"/>
-      <c r="D79" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="37"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B80" s="96"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="31"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B81" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="C81" s="95"/>
-      <c r="D81" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="31"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B82" s="96"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="D66:N66"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B24:C30"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D69:N69"/>
-    <mergeCell ref="D70:N70"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B81:C82"/>
-    <mergeCell ref="B66:C68"/>
-    <mergeCell ref="D67:F68"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="B71:C73"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="D74:N74"/>
-    <mergeCell ref="D76:F77"/>
-    <mergeCell ref="B74:C78"/>
-    <mergeCell ref="D71:N71"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61364C-7092-4374-B974-5D8E093825D9}">
-  <dimension ref="B15:L43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138"/>
-    </row>
-    <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="143" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="144"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="145"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="145"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="145"/>
-    </row>
-    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="146" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="147"/>
-    </row>
-    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="133" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="135"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="124"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="120"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="39">
-        <v>1</v>
-      </c>
-      <c r="G25" s="40">
-        <v>2</v>
-      </c>
-      <c r="H25" s="40">
-        <v>3</v>
-      </c>
-      <c r="I25" s="40">
-        <v>4</v>
-      </c>
-      <c r="J25" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
-    </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="83" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="85"/>
-    </row>
-    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="118" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="122" t="s">
-        <v>242</v>
-      </c>
-      <c r="E29" s="123"/>
-      <c r="F29" s="133">
-        <v>2</v>
-      </c>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="135"/>
-    </row>
-    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="124"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="E30" s="132"/>
-      <c r="F30" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="120"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="120" t="s">
-        <v>244</v>
-      </c>
-      <c r="E31" s="132"/>
-      <c r="F31" s="41">
-        <v>0</v>
-      </c>
-      <c r="G31" s="41">
-        <v>1</v>
-      </c>
-      <c r="H31" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="I31" s="41">
-        <v>2</v>
-      </c>
-      <c r="J31" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="118" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="122" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="123"/>
-      <c r="F33" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="120"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="122" t="s">
-        <v>246</v>
-      </c>
-      <c r="E34" s="123"/>
-      <c r="F34" s="41">
-        <v>2</v>
-      </c>
-      <c r="G34" s="41">
-        <v>2</v>
-      </c>
-      <c r="H34" s="41">
-        <v>2</v>
-      </c>
-      <c r="I34" s="41">
-        <v>2</v>
-      </c>
-      <c r="J34" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="118" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="118" t="s">
-        <v>248</v>
-      </c>
-      <c r="E37" s="126"/>
-      <c r="F37" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I37" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="124"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="57">
-        <v>1</v>
-      </c>
-      <c r="G38" s="41">
-        <v>2</v>
-      </c>
-      <c r="H38" s="41">
-        <v>3</v>
-      </c>
-      <c r="I38" s="41">
-        <v>4</v>
-      </c>
-      <c r="J38" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="124"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="129" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="J39" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="124"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="G40" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="J40" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="124"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I41" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="J41" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="124"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="57">
-        <v>1</v>
-      </c>
-      <c r="G42" s="41">
-        <v>2</v>
-      </c>
-      <c r="H42" s="41">
-        <v>3</v>
-      </c>
-      <c r="I42" s="41">
-        <v>4</v>
-      </c>
-      <c r="J42" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="120"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="83" t="s">
-        <v>255</v>
-      </c>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="85"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B23:C25"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B29:C31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B37:C43"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="D41:E43"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C618D004-48C5-4283-AC4B-B7089F5CE503}">
-  <dimension ref="B18:M39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="126"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="114" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="116"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="162" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="163"/>
-      <c r="D21" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="116"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="164"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="116"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="162" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="163"/>
-      <c r="D23" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="164"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="114" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="116"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="162" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="163"/>
-      <c r="D25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="164"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="116"/>
-    </row>
-    <row r="27" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="118" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="166" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="124"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="168" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="51">
-        <v>5</v>
-      </c>
-      <c r="I29" s="51">
-        <v>4</v>
-      </c>
-      <c r="J29" s="51">
-        <v>3</v>
-      </c>
-      <c r="K29" s="51">
-        <v>2</v>
-      </c>
-      <c r="L29" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="124"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="170" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>210</v>
-      </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="153" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153">
-        <v>-2</v>
-      </c>
-      <c r="L30" s="154"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="124"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77">
-        <v>1</v>
-      </c>
-      <c r="L31" s="158"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B32" s="124"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="157" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="158"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="124"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77">
-        <v>5</v>
-      </c>
-      <c r="L33" s="158"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="124"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="157" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="158"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="124"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77">
-        <v>4</v>
-      </c>
-      <c r="L35" s="158"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="124"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="159" t="s">
-        <v>216</v>
-      </c>
-      <c r="E36" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77">
-        <v>-2</v>
-      </c>
-      <c r="L36" s="158"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="124"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161" t="s">
-        <v>217</v>
-      </c>
-      <c r="J37" s="161"/>
-      <c r="K37" s="77">
-        <v>2</v>
-      </c>
-      <c r="L37" s="158"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B38" s="124"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="151" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="148" t="s">
-        <v>219</v>
-      </c>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="J38" s="77"/>
-      <c r="K38" s="153">
-        <v>-10</v>
-      </c>
-      <c r="L38" s="154"/>
-    </row>
-    <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="120"/>
-      <c r="C39" s="132"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="155" t="s">
-        <v>220</v>
-      </c>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155" t="s">
-        <v>221</v>
-      </c>
-      <c r="L39" s="156"/>
-    </row>
-  </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B28:C39"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:H37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B1AB3-CC49-495A-99AD-7BB4C69F9D39}">
-  <dimension ref="B18:O38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="175"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="175"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="174" t="s">
-        <v>154</v>
-      </c>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="173" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="173"/>
-      <c r="D24" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="173"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="173"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="173" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="173" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="173"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D21:O21"/>
-    <mergeCell ref="D24:O24"/>
-    <mergeCell ref="D27:O27"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D30:O30"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CCAFE-CEE6-48A9-8735-EA3AFEF10E87}">
-  <dimension ref="B18:L29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="179" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="181"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="178" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="173"/>
-      <c r="D20" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="158"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="178" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="158"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="178"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="158"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="178"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77">
-        <v>1</v>
-      </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="158"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="176" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="158"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="176"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="158"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="176"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="K26" s="77"/>
-      <c r="L26" s="158"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="176" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77" t="s">
-        <v>229</v>
-      </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="158"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="176"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="K28" s="77"/>
-      <c r="L28" s="158"/>
-    </row>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="177"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155" t="s">
-        <v>226</v>
-      </c>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="K29" s="155"/>
-      <c r="L29" s="156"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:L28"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D56172-F97B-4DA2-B700-ED6E77845DD1}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="186"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="183"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="22" t="s">
         <v>58</v>
       </c>
@@ -8753,10 +6488,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="183"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="22">
         <v>10</v>
       </c>
@@ -8774,10 +6509,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="183"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="22">
         <v>10</v>
       </c>
@@ -8795,10 +6530,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="183"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="22">
         <v>5</v>
       </c>
@@ -8816,10 +6551,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="183"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="22">
         <v>1</v>
       </c>
@@ -8837,10 +6572,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="183"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="22">
         <v>1</v>
       </c>
@@ -8858,10 +6593,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="183"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="22">
         <v>2</v>
       </c>
@@ -8879,10 +6614,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="183"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="22">
         <v>0</v>
       </c>
@@ -8900,10 +6635,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="183"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="22">
         <v>0</v>
       </c>
@@ -8921,10 +6656,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="183"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="22">
         <v>0</v>
       </c>
@@ -8942,10 +6677,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="183"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="22">
         <v>100</v>
       </c>
@@ -8963,10 +6698,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="187" t="s">
+      <c r="A13" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="188"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="25">
         <v>1</v>
       </c>
@@ -8984,93 +6719,93 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="189" t="s">
+      <c r="A17" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183" t="s">
+      <c r="B18" s="95"/>
+      <c r="C18" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="183" t="s">
+      <c r="A19" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183" t="s">
+      <c r="B19" s="95"/>
+      <c r="C19" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="183" t="s">
+      <c r="A20" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="183"/>
-      <c r="C20" s="183" t="s">
+      <c r="B20" s="95"/>
+      <c r="C20" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="183" t="s">
+      <c r="A21" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="183" t="s">
+      <c r="A22" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="183"/>
-      <c r="C22" s="183" t="s">
+      <c r="B22" s="95"/>
+      <c r="C22" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="183"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="183"/>
-      <c r="C23" s="183" t="s">
+      <c r="B23" s="95"/>
+      <c r="C23" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="27"/>
@@ -9092,139 +6827,139 @@
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="190" t="s">
+      <c r="A27" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="192"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="176" t="s">
+      <c r="A28" s="105" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="77"/>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="193"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="176"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="77"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="194"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="109"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="176"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="195"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="110"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="176" t="s">
+      <c r="A31" s="105" t="s">
         <v>91</v>
       </c>
       <c r="B31" s="77"/>
-      <c r="C31" s="107" t="s">
+      <c r="C31" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="193"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="108"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="176"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="77"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="194"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="109"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="176"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="77"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="195"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="110"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="105" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="77"/>
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="193"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="108"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="176"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="77"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="194"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="109"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="176"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="77"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="195"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="110"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="176" t="s">
+      <c r="A37" s="105" t="s">
         <v>94</v>
       </c>
       <c r="B37" s="77"/>
-      <c r="C37" s="107" t="s">
+      <c r="C37" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="193"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="108"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="176"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="77"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="194"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="109"/>
     </row>
     <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="177"/>
-      <c r="B39" s="155"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="85"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="86"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="28"/>
@@ -9254,144 +6989,144 @@
       <c r="G42" s="28"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="183" t="s">
+      <c r="A44" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="183"/>
-      <c r="C44" s="183" t="s">
+      <c r="B44" s="95"/>
+      <c r="C44" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="183"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="183"/>
-      <c r="G44" s="183"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183" t="s">
+      <c r="B45" s="95"/>
+      <c r="C45" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="183"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="197" t="s">
+      <c r="A46" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="197"/>
-      <c r="C46" s="197" t="s">
+      <c r="B46" s="114"/>
+      <c r="C46" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="197"/>
-      <c r="E46" s="197"/>
-      <c r="F46" s="197"/>
-      <c r="G46" s="197"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="183" t="s">
+      <c r="A47" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="183"/>
-      <c r="C47" s="183" t="s">
+      <c r="B47" s="95"/>
+      <c r="C47" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="183"/>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="183" t="s">
+      <c r="A48" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="183"/>
-      <c r="C48" s="183" t="s">
+      <c r="B48" s="95"/>
+      <c r="C48" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="183"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="183" t="s">
+      <c r="A49" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="183"/>
-      <c r="C49" s="183" t="s">
+      <c r="B49" s="95"/>
+      <c r="C49" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="183"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="183"/>
-      <c r="G49" s="183"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="91"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="91"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
+      <c r="A51" s="92"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="91"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="91"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="91"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
+      <c r="A53" s="92"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
     </row>
     <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="190" t="s">
+      <c r="A55" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="191"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="191"/>
-      <c r="E55" s="191"/>
-      <c r="F55" s="191"/>
-      <c r="G55" s="192"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="104"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="176" t="s">
+      <c r="A56" s="105" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="77"/>
@@ -9399,10 +7134,10 @@
       <c r="D56" s="77"/>
       <c r="E56" s="77"/>
       <c r="F56" s="77"/>
-      <c r="G56" s="158"/>
+      <c r="G56" s="115"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="176" t="s">
+      <c r="A57" s="105" t="s">
         <v>111</v>
       </c>
       <c r="B57" s="77"/>
@@ -9410,10 +7145,10 @@
       <c r="D57" s="77"/>
       <c r="E57" s="77"/>
       <c r="F57" s="77"/>
-      <c r="G57" s="158"/>
+      <c r="G57" s="115"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="176" t="s">
+      <c r="A58" s="105" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="77"/>
@@ -9421,18 +7156,18 @@
       <c r="D58" s="77"/>
       <c r="E58" s="77"/>
       <c r="F58" s="77"/>
-      <c r="G58" s="158"/>
+      <c r="G58" s="115"/>
     </row>
     <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="177" t="s">
+      <c r="A59" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="155"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="156"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -9501,4 +7236,2244 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27160537-663B-4FCA-AA83-8887F14AC136}">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="117" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C138E6A2-E98E-49D8-A28E-55F40F154BA0}">
+  <dimension ref="B19:O82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="8.69921875" customWidth="1"/>
+    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B23" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+    </row>
+    <row r="24" spans="2:14" ht="150.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="119"/>
+      <c r="D24" s="128" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="130"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="131"/>
+      <c r="F25" s="137" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="138"/>
+      <c r="H25" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="138"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="137">
+        <v>20</v>
+      </c>
+      <c r="G26" s="138"/>
+      <c r="H26" s="137" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="138"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="122"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="34">
+        <v>1</v>
+      </c>
+      <c r="F28" s="34">
+        <v>2</v>
+      </c>
+      <c r="G28" s="34">
+        <v>3</v>
+      </c>
+      <c r="H28" s="34">
+        <v>4</v>
+      </c>
+      <c r="I28" s="34">
+        <v>5</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="138"/>
+      <c r="G29" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="137">
+        <v>20</v>
+      </c>
+      <c r="I29" s="138"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="120"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="136"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B66" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="70"/>
+      <c r="D66" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="76"/>
+      <c r="L66" s="76"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="76"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H67" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H68" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="133" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="134" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="135"/>
+      <c r="F69" s="135"/>
+      <c r="G69" s="135"/>
+      <c r="H69" s="135"/>
+      <c r="I69" s="135"/>
+      <c r="J69" s="135"/>
+      <c r="K69" s="135"/>
+      <c r="L69" s="135"/>
+      <c r="M69" s="135"/>
+      <c r="N69" s="136"/>
+    </row>
+    <row r="70" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="133"/>
+      <c r="C70" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="135"/>
+      <c r="F70" s="135"/>
+      <c r="G70" s="135"/>
+      <c r="H70" s="135"/>
+      <c r="I70" s="135"/>
+      <c r="J70" s="135"/>
+      <c r="K70" s="135"/>
+      <c r="L70" s="135"/>
+      <c r="M70" s="135"/>
+      <c r="N70" s="136"/>
+    </row>
+    <row r="71" spans="2:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="119"/>
+      <c r="D71" s="128" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" s="129"/>
+      <c r="F71" s="129"/>
+      <c r="G71" s="129"/>
+      <c r="H71" s="129"/>
+      <c r="I71" s="129"/>
+      <c r="J71" s="129"/>
+      <c r="K71" s="129"/>
+      <c r="L71" s="129"/>
+      <c r="M71" s="129"/>
+      <c r="N71" s="130"/>
+    </row>
+    <row r="72" spans="2:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="122"/>
+      <c r="C72" s="123"/>
+      <c r="D72" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="125"/>
+      <c r="F72" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B73" s="120"/>
+      <c r="C73" s="121"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="127"/>
+      <c r="F73" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+    </row>
+    <row r="74" spans="2:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="119"/>
+      <c r="D74" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="129"/>
+      <c r="F74" s="129"/>
+      <c r="G74" s="129"/>
+      <c r="H74" s="129"/>
+      <c r="I74" s="129"/>
+      <c r="J74" s="129"/>
+      <c r="K74" s="129"/>
+      <c r="L74" s="129"/>
+      <c r="M74" s="129"/>
+      <c r="N74" s="130"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B75" s="122"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="19"/>
+      <c r="F75" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="37"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B76" s="122"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="106" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" s="107"/>
+      <c r="F76" s="131"/>
+      <c r="G76" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B77" s="122"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="132"/>
+      <c r="G77" s="46">
+        <v>0</v>
+      </c>
+      <c r="H77" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="I77" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="J77" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="K77" s="46">
+        <v>1</v>
+      </c>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B78" s="120"/>
+      <c r="C78" s="121"/>
+      <c r="D78" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="37"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B79" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="119"/>
+      <c r="D79" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="37"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B80" s="120"/>
+      <c r="C80" s="121"/>
+      <c r="D80" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="31"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B81" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="119"/>
+      <c r="D81" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="31"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B82" s="120"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="D66:N66"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B24:C30"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B81:C82"/>
+    <mergeCell ref="B66:C68"/>
+    <mergeCell ref="D67:F68"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="B71:C73"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="D74:N74"/>
+    <mergeCell ref="D76:F77"/>
+    <mergeCell ref="B74:C78"/>
+    <mergeCell ref="D71:N71"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D69:N69"/>
+    <mergeCell ref="D70:N70"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61364C-7092-4374-B974-5D8E093825D9}">
+  <dimension ref="B15:L43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="158" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="160"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="165" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="166"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="167"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="167"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="162"/>
+      <c r="D20" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="167"/>
+    </row>
+    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="163"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="168" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="169"/>
+    </row>
+    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="140" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="148"/>
+      <c r="D23" s="155" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="157"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="146"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="148"/>
+      <c r="F24" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="142"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="39">
+        <v>1</v>
+      </c>
+      <c r="G25" s="40">
+        <v>2</v>
+      </c>
+      <c r="H25" s="40">
+        <v>3</v>
+      </c>
+      <c r="I25" s="40">
+        <v>4</v>
+      </c>
+      <c r="J25" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="83"/>
+    </row>
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="86"/>
+    </row>
+    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="140" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="141"/>
+      <c r="D29" s="144" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="145"/>
+      <c r="F29" s="155">
+        <v>2</v>
+      </c>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="157"/>
+    </row>
+    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="146"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="142" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="154"/>
+      <c r="F30" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="142"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="142" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" s="154"/>
+      <c r="F31" s="41">
+        <v>0</v>
+      </c>
+      <c r="G31" s="41">
+        <v>1</v>
+      </c>
+      <c r="H31" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="41">
+        <v>2</v>
+      </c>
+      <c r="J31" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="140" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="141"/>
+      <c r="D33" s="144" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="145"/>
+      <c r="F33" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J33" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="142"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="144" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" s="145"/>
+      <c r="F34" s="41">
+        <v>2</v>
+      </c>
+      <c r="G34" s="41">
+        <v>2</v>
+      </c>
+      <c r="H34" s="41">
+        <v>2</v>
+      </c>
+      <c r="I34" s="41">
+        <v>2</v>
+      </c>
+      <c r="J34" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="141"/>
+      <c r="D37" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37" s="148"/>
+      <c r="F37" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="146"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="57">
+        <v>1</v>
+      </c>
+      <c r="G38" s="41">
+        <v>2</v>
+      </c>
+      <c r="H38" s="41">
+        <v>3</v>
+      </c>
+      <c r="I38" s="41">
+        <v>4</v>
+      </c>
+      <c r="J38" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="146"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="151" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="152"/>
+      <c r="F39" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="146"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="J40" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="146"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="151" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="152"/>
+      <c r="F41" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J41" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="146"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="57">
+        <v>1</v>
+      </c>
+      <c r="G42" s="41">
+        <v>2</v>
+      </c>
+      <c r="H42" s="41">
+        <v>3</v>
+      </c>
+      <c r="I42" s="41">
+        <v>4</v>
+      </c>
+      <c r="J42" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="142"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B23:C25"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B29:C31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B37:C43"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="D41:E43"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C618D004-48C5-4283-AC4B-B7089F5CE503}">
+  <dimension ref="B18:M39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B19" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="148"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B21" s="178" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="179"/>
+      <c r="D21" s="134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="136"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B22" s="180"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="134" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="136"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B23" s="178" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="179"/>
+      <c r="D23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="136"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B25" s="178" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="179"/>
+      <c r="D25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B26" s="180"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="136"/>
+    </row>
+    <row r="27" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B28" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="182" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="146"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="184" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="51">
+        <v>5</v>
+      </c>
+      <c r="I29" s="51">
+        <v>4</v>
+      </c>
+      <c r="J29" s="51">
+        <v>3</v>
+      </c>
+      <c r="K29" s="51">
+        <v>2</v>
+      </c>
+      <c r="L29" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="146"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="186" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="175" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175">
+        <v>-2</v>
+      </c>
+      <c r="L30" s="176"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B31" s="146"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77">
+        <v>1</v>
+      </c>
+      <c r="L31" s="115"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B32" s="146"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="177" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="115"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B33" s="146"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77">
+        <v>5</v>
+      </c>
+      <c r="L33" s="115"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B34" s="146"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="177" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="115"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B35" s="146"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77">
+        <v>4</v>
+      </c>
+      <c r="L35" s="115"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B36" s="146"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="189" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77">
+        <v>-2</v>
+      </c>
+      <c r="L36" s="115"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B37" s="146"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="191" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" s="191"/>
+      <c r="K37" s="77">
+        <v>2</v>
+      </c>
+      <c r="L37" s="115"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B38" s="146"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="173" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="170" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="J38" s="77"/>
+      <c r="K38" s="175">
+        <v>-10</v>
+      </c>
+      <c r="L38" s="176"/>
+    </row>
+    <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="142"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="L39" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="B28:C39"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:H37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B1AB3-CC49-495A-99AD-7BB4C69F9D39}">
+  <dimension ref="B18:O38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B21" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="193" t="s">
+        <v>154</v>
+      </c>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B24" s="192" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="192"/>
+      <c r="D24" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B26" s="192"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B27" s="192" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="192"/>
+      <c r="D27" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B28" s="192"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B29" s="192" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="192"/>
+      <c r="D29" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B30" s="192"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B31" s="192"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B32" s="192"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D21:O21"/>
+    <mergeCell ref="D24:O24"/>
+    <mergeCell ref="D27:O27"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D30:O30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CCAFE-CEE6-48A9-8735-EA3AFEF10E87}">
+  <dimension ref="B18:L29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="195" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="197"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="192"/>
+      <c r="D20" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="115"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="198" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="192"/>
+      <c r="D21" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="115"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="198"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="77"/>
+      <c r="L22" s="115"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="198"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77">
+        <v>1</v>
+      </c>
+      <c r="K23" s="77"/>
+      <c r="L23" s="115"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="115"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="105"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="77"/>
+      <c r="L25" s="115"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="105"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" s="77"/>
+      <c r="L26" s="115"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="115"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="105"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" s="77"/>
+      <c r="L28" s="115"/>
+    </row>
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" s="112"/>
+      <c r="L29" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>